--- a/data/0927/格力转债110030.SH.xlsx
+++ b/data/0927/格力转债110030.SH.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smart-wift/Desktop/GitHub/JJStockView/data/0927/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="40" windowWidth="23580" windowHeight="14000"/>
+    <workbookView xWindow="2020" yWindow="460" windowWidth="23580" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="格力转债110030.SH" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -889,10 +897,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -921,7 +934,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>格力转债110030.SH!$H$1</c:f>
+              <c:f>'格力转债110030.SH'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -935,7 +948,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>格力转债110030.SH!$H$2:$H$264</c:f>
+              <c:f>'格力转债110030.SH'!$H$2:$H$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="263"/>
@@ -1737,8 +1750,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125419736"/>
-        <c:axId val="2125421144"/>
+        <c:axId val="37393472"/>
+        <c:axId val="444695152"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1748,7 +1761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>格力转债110030.SH!$E$1</c:f>
+              <c:f>'格力转债110030.SH'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1762,7 +1775,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>格力转债110030.SH!$E$2:$E$264</c:f>
+              <c:f>'格力转债110030.SH'!$E$2:$E$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="263"/>
@@ -2564,11 +2577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108090744"/>
-        <c:axId val="2108088264"/>
+        <c:axId val="445224432"/>
+        <c:axId val="69505280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125419736"/>
+        <c:axId val="37393472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,7 +2590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125421144"/>
+        <c:crossAx val="444695152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2585,7 +2598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125421144"/>
+        <c:axId val="444695152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,12 +2609,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125419736"/>
+        <c:crossAx val="37393472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108088264"/>
+        <c:axId val="69505280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,12 +2624,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108090744"/>
+        <c:crossAx val="445224432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2108090744"/>
+        <c:axId val="445224432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,7 +2638,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108088264"/>
+        <c:crossAx val="69505280"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2647,6 +2661,1595 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'格力转债110030.SH'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>成交笔数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'格力转债110030.SH'!$J$2:$J$264</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="263"/>
+                <c:pt idx="0">
+                  <c:v>541.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>297.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>362.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>939.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>678.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>835.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>572.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>433.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>502.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>473.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>328.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1053.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1656.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>818.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>524.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>429.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>463.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>343.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1632.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>188.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="445394112"/>
+        <c:axId val="445395888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445394112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445395888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445395888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445394112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2676,6 +4279,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2971,17 +4604,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="H1:H1048576 E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +4646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3045,7 +4678,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3077,7 +4710,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3109,7 +4742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3141,7 +4774,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3173,7 +4806,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +4838,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -3237,7 +4870,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3269,7 +4902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -3301,7 +4934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -3333,7 +4966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -3365,7 +4998,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -3397,7 +5030,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -3429,7 +5062,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -3461,7 +5094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -3493,7 +5126,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -3525,7 +5158,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -3557,7 +5190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -3589,7 +5222,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3621,7 +5254,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -3653,7 +5286,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -3685,7 +5318,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -3717,7 +5350,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3749,7 +5382,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -3781,7 +5414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -3813,7 +5446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -3845,7 +5478,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -3877,7 +5510,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -3909,7 +5542,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -3941,7 +5574,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -3973,7 +5606,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -4005,7 +5638,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -4037,7 +5670,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -4069,7 +5702,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -4101,7 +5734,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -4133,7 +5766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -4165,7 +5798,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4197,7 +5830,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -4229,7 +5862,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -4261,7 +5894,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -4293,7 +5926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -4325,7 +5958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -4357,7 +5990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -4389,7 +6022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -4421,7 +6054,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -4453,7 +6086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -4485,7 +6118,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -4517,7 +6150,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -4549,7 +6182,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -4581,7 +6214,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
@@ -4613,7 +6246,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -4645,7 +6278,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
@@ -4677,7 +6310,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -4709,7 +6342,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
@@ -4741,7 +6374,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -4773,7 +6406,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -4805,7 +6438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -4837,7 +6470,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
@@ -4869,7 +6502,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
@@ -4901,7 +6534,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
@@ -4933,7 +6566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
@@ -4965,7 +6598,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
@@ -4997,7 +6630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>72</v>
       </c>
@@ -5029,7 +6662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
@@ -5061,7 +6694,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
@@ -5093,7 +6726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -5125,7 +6758,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>76</v>
       </c>
@@ -5157,7 +6790,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
@@ -5189,7 +6822,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>78</v>
       </c>
@@ -5221,7 +6854,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
@@ -5253,7 +6886,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>80</v>
       </c>
@@ -5285,7 +6918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
@@ -5317,7 +6950,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>82</v>
       </c>
@@ -5349,7 +6982,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>83</v>
       </c>
@@ -5381,7 +7014,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
@@ -5413,7 +7046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>85</v>
       </c>
@@ -5445,7 +7078,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>86</v>
       </c>
@@ -5477,7 +7110,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>87</v>
       </c>
@@ -5509,7 +7142,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>88</v>
       </c>
@@ -5541,7 +7174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>89</v>
       </c>
@@ -5573,7 +7206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>90</v>
       </c>
@@ -5605,7 +7238,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>91</v>
       </c>
@@ -5637,7 +7270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -5669,7 +7302,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
@@ -5701,7 +7334,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -5733,7 +7366,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -5765,7 +7398,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -5797,7 +7430,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>97</v>
       </c>
@@ -5829,7 +7462,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>98</v>
       </c>
@@ -5861,7 +7494,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>99</v>
       </c>
@@ -5893,7 +7526,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
@@ -5925,7 +7558,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
@@ -5957,7 +7590,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
@@ -5989,7 +7622,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
@@ -6021,7 +7654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>104</v>
       </c>
@@ -6053,7 +7686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>105</v>
       </c>
@@ -6085,7 +7718,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
@@ -6117,7 +7750,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>107</v>
       </c>
@@ -6149,7 +7782,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>108</v>
       </c>
@@ -6181,7 +7814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>109</v>
       </c>
@@ -6213,7 +7846,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>110</v>
       </c>
@@ -6245,7 +7878,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>111</v>
       </c>
@@ -6277,7 +7910,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>112</v>
       </c>
@@ -6309,7 +7942,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>113</v>
       </c>
@@ -6341,7 +7974,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>114</v>
       </c>
@@ -6373,7 +8006,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
@@ -6405,7 +8038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>116</v>
       </c>
@@ -6437,7 +8070,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>117</v>
       </c>
@@ -6469,7 +8102,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>118</v>
       </c>
@@ -6501,7 +8134,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>119</v>
       </c>
@@ -6533,7 +8166,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>120</v>
       </c>
@@ -6565,7 +8198,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>121</v>
       </c>
@@ -6597,7 +8230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>122</v>
       </c>
@@ -6629,7 +8262,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>123</v>
       </c>
@@ -6661,7 +8294,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>124</v>
       </c>
@@ -6693,7 +8326,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>125</v>
       </c>
@@ -6725,7 +8358,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>126</v>
       </c>
@@ -6757,7 +8390,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>127</v>
       </c>
@@ -6789,7 +8422,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>128</v>
       </c>
@@ -6821,7 +8454,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>129</v>
       </c>
@@ -6853,7 +8486,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>130</v>
       </c>
@@ -6885,7 +8518,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>131</v>
       </c>
@@ -6917,7 +8550,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>132</v>
       </c>
@@ -6949,7 +8582,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>133</v>
       </c>
@@ -6981,7 +8614,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
@@ -7013,7 +8646,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>135</v>
       </c>
@@ -7045,7 +8678,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>136</v>
       </c>
@@ -7077,7 +8710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>137</v>
       </c>
@@ -7109,7 +8742,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>138</v>
       </c>
@@ -7141,7 +8774,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>139</v>
       </c>
@@ -7173,7 +8806,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>140</v>
       </c>
@@ -7205,7 +8838,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>141</v>
       </c>
@@ -7237,7 +8870,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>142</v>
       </c>
@@ -7269,7 +8902,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>143</v>
       </c>
@@ -7301,7 +8934,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>144</v>
       </c>
@@ -7333,7 +8966,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>145</v>
       </c>
@@ -7365,7 +8998,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>146</v>
       </c>
@@ -7397,7 +9030,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
@@ -7429,7 +9062,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -7461,7 +9094,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -7493,7 +9126,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
@@ -7525,7 +9158,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>151</v>
       </c>
@@ -7557,7 +9190,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>152</v>
       </c>
@@ -7589,7 +9222,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>153</v>
       </c>
@@ -7621,7 +9254,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>154</v>
       </c>
@@ -7653,7 +9286,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>155</v>
       </c>
@@ -7685,7 +9318,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>156</v>
       </c>
@@ -7717,7 +9350,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>157</v>
       </c>
@@ -7749,7 +9382,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>158</v>
       </c>
@@ -7781,7 +9414,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>159</v>
       </c>
@@ -7813,7 +9446,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>160</v>
       </c>
@@ -7845,7 +9478,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>161</v>
       </c>
@@ -7877,7 +9510,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>162</v>
       </c>
@@ -7909,7 +9542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>163</v>
       </c>
@@ -7941,7 +9574,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>164</v>
       </c>
@@ -7973,7 +9606,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>165</v>
       </c>
@@ -8005,7 +9638,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
@@ -8037,7 +9670,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>167</v>
       </c>
@@ -8069,7 +9702,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>168</v>
       </c>
@@ -8101,7 +9734,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>169</v>
       </c>
@@ -8133,7 +9766,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>170</v>
       </c>
@@ -8165,7 +9798,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>171</v>
       </c>
@@ -8197,7 +9830,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>172</v>
       </c>
@@ -8229,7 +9862,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>173</v>
       </c>
@@ -8261,7 +9894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>174</v>
       </c>
@@ -8293,7 +9926,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>175</v>
       </c>
@@ -8325,7 +9958,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>176</v>
       </c>
@@ -8357,7 +9990,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>177</v>
       </c>
@@ -8389,7 +10022,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>178</v>
       </c>
@@ -8421,7 +10054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>179</v>
       </c>
@@ -8453,7 +10086,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>180</v>
       </c>
@@ -8485,7 +10118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>181</v>
       </c>
@@ -8517,7 +10150,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>182</v>
       </c>
@@ -8549,7 +10182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>183</v>
       </c>
@@ -8581,7 +10214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>184</v>
       </c>
@@ -8613,7 +10246,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>185</v>
       </c>
@@ -8645,7 +10278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>186</v>
       </c>
@@ -8677,7 +10310,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>187</v>
       </c>
@@ -8709,7 +10342,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>188</v>
       </c>
@@ -8741,7 +10374,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
@@ -8773,7 +10406,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>190</v>
       </c>
@@ -8805,7 +10438,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>191</v>
       </c>
@@ -8837,7 +10470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>192</v>
       </c>
@@ -8869,7 +10502,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>193</v>
       </c>
@@ -8901,7 +10534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>194</v>
       </c>
@@ -8933,7 +10566,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>195</v>
       </c>
@@ -8965,7 +10598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>196</v>
       </c>
@@ -8997,7 +10630,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>197</v>
       </c>
@@ -9029,7 +10662,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>198</v>
       </c>
@@ -9061,7 +10694,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>199</v>
       </c>
@@ -9093,7 +10726,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>200</v>
       </c>
@@ -9125,7 +10758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>201</v>
       </c>
@@ -9157,7 +10790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>202</v>
       </c>
@@ -9189,7 +10822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -9221,7 +10854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>204</v>
       </c>
@@ -9253,7 +10886,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -9285,7 +10918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>206</v>
       </c>
@@ -9317,7 +10950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>207</v>
       </c>
@@ -9349,7 +10982,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>208</v>
       </c>
@@ -9381,7 +11014,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>209</v>
       </c>
@@ -9413,7 +11046,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>210</v>
       </c>
@@ -9445,7 +11078,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>211</v>
       </c>
@@ -9477,7 +11110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>212</v>
       </c>
@@ -9509,7 +11142,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>213</v>
       </c>
@@ -9541,7 +11174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>214</v>
       </c>
@@ -9573,7 +11206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>215</v>
       </c>
@@ -9605,7 +11238,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>216</v>
       </c>
@@ -9637,7 +11270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>217</v>
       </c>
@@ -9669,7 +11302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>218</v>
       </c>
@@ -9701,7 +11334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>219</v>
       </c>
@@ -9733,7 +11366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>220</v>
       </c>
@@ -9765,7 +11398,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>221</v>
       </c>
@@ -9797,7 +11430,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>222</v>
       </c>
@@ -9829,7 +11462,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>223</v>
       </c>
@@ -9861,7 +11494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>224</v>
       </c>
@@ -9893,7 +11526,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>225</v>
       </c>
@@ -9925,7 +11558,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>226</v>
       </c>
@@ -9957,7 +11590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>227</v>
       </c>
@@ -9989,7 +11622,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>228</v>
       </c>
@@ -10021,7 +11654,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>229</v>
       </c>
@@ -10053,7 +11686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
@@ -10085,7 +11718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>231</v>
       </c>
@@ -10117,7 +11750,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>232</v>
       </c>
@@ -10149,7 +11782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>233</v>
       </c>
@@ -10181,7 +11814,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>234</v>
       </c>
@@ -10213,7 +11846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>235</v>
       </c>
@@ -10245,7 +11878,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>236</v>
       </c>
@@ -10277,7 +11910,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>237</v>
       </c>
@@ -10309,7 +11942,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>238</v>
       </c>
@@ -10341,7 +11974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>239</v>
       </c>
@@ -10373,7 +12006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>240</v>
       </c>
@@ -10405,7 +12038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>241</v>
       </c>
@@ -10437,7 +12070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>242</v>
       </c>
@@ -10469,7 +12102,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>243</v>
       </c>
@@ -10501,7 +12134,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>244</v>
       </c>
@@ -10533,7 +12166,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>245</v>
       </c>
@@ -10565,7 +12198,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>246</v>
       </c>
@@ -10597,7 +12230,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>247</v>
       </c>
@@ -10629,7 +12262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>248</v>
       </c>
@@ -10661,7 +12294,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>249</v>
       </c>
@@ -10693,7 +12326,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
         <v>250</v>
       </c>
@@ -10725,7 +12358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
         <v>251</v>
       </c>
@@ -10757,7 +12390,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>252</v>
       </c>
@@ -10789,7 +12422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>253</v>
       </c>
@@ -10821,7 +12454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>254</v>
       </c>
@@ -10853,7 +12486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>255</v>
       </c>
@@ -10885,7 +12518,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>256</v>
       </c>
@@ -10917,7 +12550,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>257</v>
       </c>
@@ -10949,7 +12582,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>258</v>
       </c>
@@ -10981,7 +12614,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>259</v>
       </c>
@@ -11013,7 +12646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>260</v>
       </c>
@@ -11045,7 +12678,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>261</v>
       </c>
@@ -11077,7 +12710,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
         <v>262</v>
       </c>
@@ -11109,7 +12742,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
         <v>263</v>
       </c>
@@ -11141,7 +12774,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
         <v>264</v>
       </c>
@@ -11173,7 +12806,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
         <v>265</v>
       </c>
@@ -11205,7 +12838,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
         <v>266</v>
       </c>
@@ -11237,7 +12870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
         <v>267</v>
       </c>
@@ -11269,7 +12902,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
         <v>268</v>
       </c>
@@ -11301,7 +12934,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -11333,7 +12966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
         <v>270</v>
       </c>
@@ -11365,7 +12998,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>271</v>
       </c>
@@ -11374,10 +13007,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>